--- a/ChinaBalancedSAM/tot3.xlsx
+++ b/ChinaBalancedSAM/tot3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="50" windowWidth="16120" windowHeight="9140"/>
+    <workbookView xWindow="315" yWindow="45" windowWidth="16125" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,12 +127,35 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -159,17 +182,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -182,7 +219,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,13 +507,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -493,18 +530,18 @@
         <f>(E1-B1)/B1</f>
         <v>-2.1150869489156402E-2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1">
-        <v>2737.9264794493438</v>
+      <c r="J1" s="4">
+        <v>2786.412073290513</v>
       </c>
       <c r="K1">
         <f>(J1-B1)/B1</f>
-        <v>-2.0227963950646365E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-2.8773048466156966E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -521,18 +558,18 @@
         <f t="shared" ref="F2:F30" si="0">(E2-B2)/B2</f>
         <v>9.3336967057084316E-3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <v>3762.1533487219581</v>
+      <c r="J2" s="4">
+        <v>3857.0880041395926</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" ref="K2:K30" si="1">(J2-B2)/B2</f>
-        <v>8.6660242470770789E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.4118830809547855E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -549,18 +586,18 @@
         <f t="shared" si="0"/>
         <v>1.6820956126688866E-2</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1">
-        <v>1597.8495829343417</v>
+      <c r="J3" s="4">
+        <v>1616.0018193144801</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="1"/>
-        <v>3.8728529561562489E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>5.0528918036658335E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -577,18 +614,18 @@
         <f t="shared" si="0"/>
         <v>-2.0286808387791565E-3</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1">
-        <v>3018.60109761686</v>
+      <c r="J4" s="4">
+        <v>3075.7513133408197</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="1"/>
-        <v>9.6195511127150773E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.8734357368756097E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -605,18 +642,18 @@
         <f t="shared" si="0"/>
         <v>0.11811262231761289</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="1">
-        <v>946.56546807247889</v>
+      <c r="J5" s="4">
+        <v>997.6720643226746</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="1"/>
-        <v>0.13532605081815699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.19662413536549006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -633,18 +670,18 @@
         <f t="shared" si="0"/>
         <v>-7.1080314516159138E-3</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="1">
-        <v>13441.901789646467</v>
+      <c r="J6" s="4">
+        <v>13540.697151614222</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>-5.2654444371609006E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.0456609418681953E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -661,18 +698,18 @@
         <f t="shared" si="0"/>
         <v>-3.8302814634320328E-3</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="1">
-        <v>1752.2808213525443</v>
+      <c r="J7" s="4">
+        <v>1809.6809764847283</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>1.4470049004531796E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.770144518272397E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -689,18 +726,18 @@
         <f t="shared" si="0"/>
         <v>-4.9655382484865618E-2</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="1">
-        <v>886.74649653918414</v>
+      <c r="J8" s="4">
+        <v>917.51534453812474</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>1.3141935609613265E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.829652639715877E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -717,18 +754,18 @@
         <f t="shared" si="0"/>
         <v>0.15383132486405252</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="1">
-        <v>435.66964250368187</v>
+      <c r="J9" s="4">
+        <v>486.16188482132344</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="1"/>
-        <v>0.27372808668153009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.42134770697436758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -745,18 +782,18 @@
         <f t="shared" si="0"/>
         <v>-3.2864095854573991E-2</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="1">
-        <v>5411.1746637829347</v>
+      <c r="J10" s="4">
+        <v>5514.4774110227136</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="1"/>
-        <v>-3.5017378355428196E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>-1.6595249696058939E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -773,18 +810,18 @@
         <f t="shared" si="0"/>
         <v>6.2267311081566747E-3</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="1">
-        <v>4856.8666775816464</v>
+      <c r="J11" s="4">
+        <v>4928.3729971936073</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="1"/>
-        <v>1.0191438064502687E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.506421029292925E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -801,18 +838,18 @@
         <f t="shared" si="0"/>
         <v>0.11187681193146506</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="1">
-        <v>1895.9145019900329</v>
+      <c r="J12" s="4">
+        <v>2024.6997001253771</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="1"/>
-        <v>0.10857820616272623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.18388142462502255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -829,18 +866,18 @@
         <f t="shared" si="0"/>
         <v>4.9477287044044825E-2</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="1">
-        <v>2411.3067476732945</v>
+      <c r="J13" s="4">
+        <v>2444.986643801129</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="1"/>
-        <v>6.6726153008432612E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>8.1625636894020914E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -857,18 +894,18 @@
         <f t="shared" si="0"/>
         <v>-1.0898739839844804E-3</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="1">
-        <v>2523.0480908491427</v>
+      <c r="J14" s="4">
+        <v>2597.27844789247</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="1"/>
-        <v>7.1879178598586698E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.6820297450094949E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -885,18 +922,18 @@
         <f t="shared" si="0"/>
         <v>-2.0758970386606903E-3</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="1">
-        <v>2039.5003944812784</v>
+      <c r="J15" s="4">
+        <v>2045.0788557577573</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="1"/>
-        <v>1.8203750752198367E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.0988751534991256E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -913,18 +950,18 @@
         <f t="shared" si="0"/>
         <v>2.3885562708642789E-2</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="1">
-        <v>10364.942951683599</v>
+      <c r="J16" s="4">
+        <v>10508.176134927264</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="1"/>
-        <v>2.6306506775440067E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.0489040016035899E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -941,18 +978,18 @@
         <f t="shared" si="0"/>
         <v>-1.6836944492682082E-2</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="1">
-        <v>1658.6584019259674</v>
+      <c r="J17" s="4">
+        <v>1692.8021376418324</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="1"/>
-        <v>-7.7133200851693916E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.2713052285443239E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -969,18 +1006,18 @@
         <f t="shared" si="0"/>
         <v>2.434396869827711E-2</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="1">
-        <v>3841.3696109422663</v>
+      <c r="J18" s="4">
+        <v>3899.9383260555965</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="1"/>
-        <v>2.6624898833668059E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.2277675660132165E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -997,18 +1034,18 @@
         <f t="shared" si="0"/>
         <v>4.8783767354218299E-2</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="1">
-        <v>1827.2310048872921</v>
+      <c r="J19" s="4">
+        <v>1878.3901249299527</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="1"/>
-        <v>5.2846683707182755E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>8.2324461686117179E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1025,18 +1062,18 @@
         <f t="shared" si="0"/>
         <v>1.7607920667761082E-2</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="1">
-        <v>373.94090382024837</v>
+      <c r="J20" s="4">
+        <v>369.14475603151737</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="1"/>
-        <v>0.13585324775109747</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1212848494109602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1053,18 +1090,18 @@
         <f t="shared" si="0"/>
         <v>8.1369072388014468E-2</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="1">
-        <v>356.15382387680711</v>
+      <c r="J21" s="4">
+        <v>377.37550873793134</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="1"/>
-        <v>0.21511259973966201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.28751596854745021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1081,18 +1118,18 @@
         <f t="shared" si="0"/>
         <v>2.1291903560953566E-2</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="1">
-        <v>2016.8226360821952</v>
+      <c r="J22" s="4">
+        <v>2081.8578304740345</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="1"/>
-        <v>3.3520409498693317E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6.6847683566903182E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1109,18 +1146,18 @@
         <f t="shared" si="0"/>
         <v>2.7865894043231552E-2</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="1">
-        <v>8434.0487736110772</v>
+      <c r="J23" s="4">
+        <v>8596.8802385846266</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="1"/>
-        <v>2.8609206628396906E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.8467989580261508E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1137,18 +1174,18 @@
         <f t="shared" si="0"/>
         <v>1.1168882283508857E-2</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="1">
-        <v>6295.6889553384344</v>
+      <c r="J24" s="4">
+        <v>6457.0304313624092</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="1"/>
-        <v>1.1376335018938429E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.7295174381119359E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1165,18 +1202,18 @@
         <f t="shared" si="0"/>
         <v>5.1859686217031034E-2</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="1">
-        <v>1752.3241763903104</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="1"/>
-        <v>6.5621347913601177E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J25" s="4">
+        <v>1859.6684119058471</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13089940004688552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1193,18 +1230,18 @@
         <f t="shared" si="0"/>
         <v>4.3818462157138111E-2</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="1">
-        <v>2900.5549188381165</v>
+      <c r="J26" s="4">
+        <v>2937.8709778880475</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="1"/>
-        <v>4.7138426118765925E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>6.0610013603188427E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
@@ -1221,18 +1258,18 @@
         <f t="shared" si="0"/>
         <v>5.5821359961848761E-2</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J27" s="1">
-        <v>2504.434634838899</v>
+      <c r="J27" s="4">
+        <v>2544.5540907942568</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="1"/>
-        <v>6.5720190720897687E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>8.2792352899773214E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1249,18 +1286,18 @@
         <f t="shared" si="0"/>
         <v>0.15189969410399012</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="1">
-        <v>1218.222440104292</v>
+      <c r="J28" s="4">
+        <v>1303.1963071280957</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="1"/>
-        <v>0.16255109706073098</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.24364175758210385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
@@ -1277,18 +1314,18 @@
         <f t="shared" si="0"/>
         <v>-6.0182268127386236E-3</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="1">
-        <v>1448.13868701775</v>
+      <c r="J29" s="4">
+        <v>1479.4972706647736</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="1"/>
-        <v>6.4286122114608161E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.8222226389247169E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -1305,18 +1342,18 @@
         <f t="shared" si="0"/>
         <v>-8.2979032870267155E-3</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="1">
-        <v>7653.0634486772597</v>
+      <c r="J30" s="4">
+        <v>7835.0391011336287</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="1"/>
-        <v>-5.4766490407828355E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.8171271414545168E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B31">
         <f>SUM(B1:B30)</f>
         <v>98430.467151053483</v>
@@ -1327,18 +1364,20 @@
       </c>
       <c r="J31">
         <f>SUM(J1:J30)</f>
-        <v>100363.1011712297</v>
+        <v>102463.29633591934</v>
       </c>
       <c r="K31">
         <f>J31/B31</f>
-        <v>1.0196345102905013</v>
+        <v>1.0409713506558593</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:B30">
     <sortCondition ref="A1"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1348,34 +1387,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1386,8 +1426,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ChinaBalancedSAM/tot3.xlsx
+++ b/ChinaBalancedSAM/tot3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="45" windowWidth="16125" windowHeight="9135"/>
+    <workbookView xWindow="315" yWindow="75" windowWidth="16125" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="35">
   <si>
     <t>BEJ</t>
   </si>
@@ -127,12 +127,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,8 +190,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,22 +202,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -505,15 +523,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -540,8 +558,14 @@
         <f>(J1-B1)/B1</f>
         <v>-2.8773048466156966E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="6">
+        <v>9394.1612880314151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -568,8 +592,14 @@
         <f t="shared" ref="K2:K30" si="1">(J2-B2)/B2</f>
         <v>3.4118830809547855E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>7523.7119947888723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -596,8 +626,14 @@
         <f t="shared" si="1"/>
         <v>5.0528918036658335E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="6">
+        <v>4867.9576220882991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -624,8 +660,14 @@
         <f t="shared" si="1"/>
         <v>2.8734357368756097E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="6">
+        <v>8151.9455499945871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -652,8 +694,14 @@
         <f t="shared" si="1"/>
         <v>0.19662413536549006</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="6">
+        <v>7418.5795924591785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -680,8 +728,14 @@
         <f t="shared" si="1"/>
         <v>2.0456609418681953E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="6">
+        <v>25101.572629148839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -708,8 +762,14 @@
         <f t="shared" si="1"/>
         <v>4.770144518272397E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="6">
+        <v>6331.2325970567017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -736,8 +796,14 @@
         <f t="shared" si="1"/>
         <v>4.829652639715877E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="6">
+        <v>8423.6577418778761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -764,8 +830,14 @@
         <f t="shared" si="1"/>
         <v>0.42134770697436758</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="6">
+        <v>2432.6958369939152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -792,8 +864,14 @@
         <f t="shared" si="1"/>
         <v>-1.6595249696058939E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="6">
+        <v>24856.170925037364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -820,8 +898,14 @@
         <f t="shared" si="1"/>
         <v>2.506421029292925E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="6">
+        <v>18481.256678677808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -848,8 +932,14 @@
         <f t="shared" si="1"/>
         <v>0.18388142462502255</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="6">
+        <v>11750.853632551451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -876,8 +966,14 @@
         <f t="shared" si="1"/>
         <v>8.1625636894020914E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="6">
+        <v>12324.161929570198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -904,8 +1000,14 @@
         <f t="shared" si="1"/>
         <v>3.6820297450094949E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="6">
+        <v>10468.384394303503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -932,8 +1034,14 @@
         <f t="shared" si="1"/>
         <v>2.0988751534991256E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="6">
+        <v>9516.9547209133507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -960,8 +1068,14 @@
         <f t="shared" si="1"/>
         <v>4.0489040016035899E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="6">
+        <v>24726.760321301957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -988,8 +1102,14 @@
         <f t="shared" si="1"/>
         <v>1.2713052285443239E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="6">
+        <v>6607.4823861321111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1016,8 +1136,14 @@
         <f t="shared" si="1"/>
         <v>4.2277675660132165E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="6">
+        <v>23000.823306075039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1044,8 +1170,14 @@
         <f t="shared" si="1"/>
         <v>8.2324461686117179E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="6">
+        <v>15302.703553446476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1072,8 +1204,14 @@
         <f t="shared" si="1"/>
         <v>0.1212848494109602</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1873.47167708794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
@@ -1100,8 +1238,14 @@
         <f t="shared" si="1"/>
         <v>0.28751596854745021</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="6">
+        <v>3969.3623660530566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1128,8 +1272,14 @@
         <f t="shared" si="1"/>
         <v>6.6847683566903182E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="6">
+        <v>10085.301117856419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1156,8 +1306,14 @@
         <f t="shared" si="1"/>
         <v>4.8467989580261508E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O23" s="6">
+        <v>32685.374360023874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1184,8 +1340,14 @@
         <f t="shared" si="1"/>
         <v>3.7295174381119359E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="6">
+        <v>13977.891822228703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1212,8 +1374,14 @@
         <f t="shared" si="1"/>
         <v>0.13089940004688552</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="6">
+        <v>21539.922997753038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1240,8 +1408,14 @@
         <f t="shared" si="1"/>
         <v>6.0610013603188427E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" s="6">
+        <v>11613.44096283507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
@@ -1268,8 +1442,14 @@
         <f t="shared" si="1"/>
         <v>8.2792352899773214E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6">
+        <v>7119.0824332071934</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1296,8 +1476,14 @@
         <f t="shared" si="1"/>
         <v>0.24364175758210385</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" s="6">
+        <v>9297.4711687649051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>24</v>
       </c>
@@ -1324,8 +1510,14 @@
         <f t="shared" si="1"/>
         <v>2.8222226389247169E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="6">
+        <v>8736.8723325230276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -1352,8 +1544,14 @@
         <f t="shared" si="1"/>
         <v>1.8171271414545168E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="N30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" s="6">
+        <v>18635.465675385767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B31">
         <f>SUM(B1:B30)</f>
         <v>98430.467151053483</v>
@@ -1375,7 +1573,7 @@
   <sortState ref="A1:B30">
     <sortCondition ref="A1"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1415,7 +1613,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1428,7 +1626,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>